--- a/文档/交付文档模板/问题管理表.xlsx
+++ b/文档/交付文档模板/问题管理表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="15480" windowHeight="8160" tabRatio="314" activeTab="3"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <t>问题管理表模板</t>
   </si>
@@ -369,6 +369,100 @@
   </si>
   <si>
     <t>../与./的不同导致了引入路径不正确，修改既可以查看到</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 配置路由时不成功</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈秋宇</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>看文档A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PI</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬用官网API没效果，问老师，实际是挂载点重复了</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈秋宇</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 二级菜单v-for循环不出数据</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看官网写法，但是看不懂</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>和同学交流</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈秋宇</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 生产环境生成的网站链接不到某个页面</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>问同学</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改配置文件的路径，并且把组员写的a标签改成router-link</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 注册页面的校验</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈秋宇</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>看element-ui文档</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>和官网给的a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pi某些值没配对</t>
+    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -3964,8 +4058,8 @@
   </sheetPr>
   <dimension ref="B1:O29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
@@ -4323,61 +4417,109 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" ht="24">
       <c r="B11" s="41">
         <v>6</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+        <v>80</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="45">
+        <v>42949</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="38">
+        <v>42949</v>
+      </c>
+      <c r="K11" s="38">
+        <v>42950</v>
+      </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" ht="24">
       <c r="B12" s="41">
         <v>7</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
+        <v>86</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="45">
+        <v>42950</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="38">
+        <v>42950</v>
+      </c>
+      <c r="K12" s="38">
+        <v>42951</v>
+      </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" ht="24">
       <c r="B13" s="41">
         <v>8</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+        <v>90</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="45">
+        <v>42957</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="38">
+        <v>42957</v>
+      </c>
+      <c r="K13" s="38">
+        <v>42957</v>
+      </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
       <c r="N13" s="37"/>
@@ -4388,16 +4530,32 @@
         <v>9</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+        <v>94</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="45">
+        <v>42956</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="38">
+        <v>42956</v>
+      </c>
+      <c r="K14" s="38">
+        <v>42956</v>
+      </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="37"/>
